--- a/data/pca/factorExposure/factorExposure_2019-04-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1277385868273406</v>
+        <v>0.07918259075648111</v>
       </c>
       <c r="C2">
-        <v>-0.001214359260183285</v>
+        <v>-0.03776963925449789</v>
       </c>
       <c r="D2">
-        <v>0.05306376647061634</v>
+        <v>-0.01248273915600448</v>
       </c>
       <c r="E2">
-        <v>-0.1108618395346678</v>
+        <v>-0.03908116239619089</v>
       </c>
       <c r="F2">
-        <v>-0.1051024407227431</v>
+        <v>0.1391463732498336</v>
       </c>
       <c r="G2">
-        <v>0.01125001088088209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1066597809117989</v>
+      </c>
+      <c r="H2">
+        <v>-0.05925153548631142</v>
+      </c>
+      <c r="I2">
+        <v>0.03020642202465723</v>
+      </c>
+      <c r="J2">
+        <v>0.06792526455759125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2268032717359816</v>
+        <v>0.1695382064384293</v>
       </c>
       <c r="C3">
-        <v>-0.1124109137419117</v>
+        <v>-0.09070969769806868</v>
       </c>
       <c r="D3">
-        <v>-0.03254818368795988</v>
+        <v>0.03158836580599273</v>
       </c>
       <c r="E3">
-        <v>-0.3248131060876944</v>
+        <v>0.02202528530473764</v>
       </c>
       <c r="F3">
-        <v>-0.01883450328800757</v>
+        <v>0.3684075349601741</v>
       </c>
       <c r="G3">
-        <v>0.1017679980021291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.08478800391924567</v>
+      </c>
+      <c r="H3">
+        <v>-0.2908542578263332</v>
+      </c>
+      <c r="I3">
+        <v>0.1966784169453556</v>
+      </c>
+      <c r="J3">
+        <v>0.2383839771293779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09757376778605351</v>
+        <v>0.07541784592880238</v>
       </c>
       <c r="C4">
-        <v>-0.03661619383731951</v>
+        <v>-0.03941192068575684</v>
       </c>
       <c r="D4">
-        <v>0.02945741751591853</v>
+        <v>0.02750542301702889</v>
       </c>
       <c r="E4">
-        <v>-0.07238896818426308</v>
+        <v>-0.03423684205602687</v>
       </c>
       <c r="F4">
-        <v>-0.03686199156141656</v>
+        <v>0.08148243993464491</v>
       </c>
       <c r="G4">
-        <v>0.03466047381444362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04675893334058932</v>
+      </c>
+      <c r="H4">
+        <v>-0.02772542090405799</v>
+      </c>
+      <c r="I4">
+        <v>0.03567579363403633</v>
+      </c>
+      <c r="J4">
+        <v>0.05535487269135399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01801237809985298</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.008501940645756257</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.009103696665499443</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.004425349532417908</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.001835676529185208</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02116076680571781</v>
+      </c>
+      <c r="H6">
+        <v>-5.621354361773995e-05</v>
+      </c>
+      <c r="I6">
+        <v>-0.01274149211072162</v>
+      </c>
+      <c r="J6">
+        <v>0.001523698829744604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04186211270647718</v>
+        <v>0.03577322312646922</v>
       </c>
       <c r="C7">
-        <v>-0.009339822749989275</v>
+        <v>-0.00869156791803222</v>
       </c>
       <c r="D7">
-        <v>0.03660016952939293</v>
+        <v>0.04050362143107897</v>
       </c>
       <c r="E7">
-        <v>-0.07217157939557185</v>
+        <v>-0.02752269346916938</v>
       </c>
       <c r="F7">
-        <v>0.05120078277719973</v>
+        <v>0.05519548385186314</v>
       </c>
       <c r="G7">
-        <v>-0.002873905084613546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.006408488457208497</v>
+      </c>
+      <c r="H7">
+        <v>-0.04545312670683039</v>
+      </c>
+      <c r="I7">
+        <v>-0.004756811186779524</v>
+      </c>
+      <c r="J7">
+        <v>0.05000872549578624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04192471752395314</v>
+        <v>0.03075266630873787</v>
       </c>
       <c r="C8">
-        <v>-0.04527905858425909</v>
+        <v>-0.04209837071396744</v>
       </c>
       <c r="D8">
-        <v>0.005512149297037396</v>
+        <v>0.02768530567048768</v>
       </c>
       <c r="E8">
-        <v>-0.06813915522178421</v>
+        <v>-0.01359821685671416</v>
       </c>
       <c r="F8">
-        <v>-0.00615839497245498</v>
+        <v>0.07133670312958625</v>
       </c>
       <c r="G8">
-        <v>0.01610381814481445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02041517014080255</v>
+      </c>
+      <c r="H8">
+        <v>-0.0505142119453998</v>
+      </c>
+      <c r="I8">
+        <v>0.03548832167298468</v>
+      </c>
+      <c r="J8">
+        <v>0.0585254779368672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08573727282817102</v>
+        <v>0.06270201095829479</v>
       </c>
       <c r="C9">
-        <v>-0.03678341349826653</v>
+        <v>-0.03485777362368109</v>
       </c>
       <c r="D9">
-        <v>0.03714676794173929</v>
+        <v>0.0309360854557417</v>
       </c>
       <c r="E9">
-        <v>-0.05730112655376559</v>
+        <v>-0.03106589563923169</v>
       </c>
       <c r="F9">
-        <v>-0.02523647454132954</v>
+        <v>0.0815533753332572</v>
       </c>
       <c r="G9">
-        <v>0.0524768321193849</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04422070045852641</v>
+      </c>
+      <c r="H9">
+        <v>-0.02333165882243193</v>
+      </c>
+      <c r="I9">
+        <v>0.0165827950673344</v>
+      </c>
+      <c r="J9">
+        <v>0.03675156456599477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.0009789749984161016</v>
+        <v>0.02055082748397897</v>
       </c>
       <c r="C10">
-        <v>0.1564987811727466</v>
+        <v>0.1441923540169317</v>
       </c>
       <c r="D10">
-        <v>-0.01043629541022465</v>
+        <v>-0.05788302962363794</v>
       </c>
       <c r="E10">
-        <v>-0.0724525273413253</v>
+        <v>0.01770438961880968</v>
       </c>
       <c r="F10">
-        <v>-0.01740432684296787</v>
+        <v>0.07213728611551573</v>
       </c>
       <c r="G10">
-        <v>-0.02361164776694579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02348612945831051</v>
+      </c>
+      <c r="H10">
+        <v>-0.003958604266418922</v>
+      </c>
+      <c r="I10">
+        <v>0.1062485763529043</v>
+      </c>
+      <c r="J10">
+        <v>-0.01428911948490459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.0573359772379504</v>
+        <v>0.05054385965205874</v>
       </c>
       <c r="C11">
-        <v>-0.009404072506780626</v>
+        <v>-0.02768902770687355</v>
       </c>
       <c r="D11">
-        <v>-0.00427226916304035</v>
+        <v>0.001210904216031605</v>
       </c>
       <c r="E11">
-        <v>-0.04068852374009523</v>
+        <v>-0.006255521235172957</v>
       </c>
       <c r="F11">
-        <v>-0.007576158620796148</v>
+        <v>0.0392828746105709</v>
       </c>
       <c r="G11">
-        <v>-0.0207171240556624</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.009304468900685491</v>
+      </c>
+      <c r="H11">
+        <v>-0.001118734326642049</v>
+      </c>
+      <c r="I11">
+        <v>-0.01050093112645307</v>
+      </c>
+      <c r="J11">
+        <v>0.04231515890462373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04433184970367819</v>
+        <v>0.04781667337993922</v>
       </c>
       <c r="C12">
-        <v>-0.01639974015036385</v>
+        <v>-0.02298518349580697</v>
       </c>
       <c r="D12">
-        <v>-0.002162150730326067</v>
+        <v>0.01112818457170795</v>
       </c>
       <c r="E12">
-        <v>-0.02890525106688969</v>
+        <v>-0.008730421494422724</v>
       </c>
       <c r="F12">
-        <v>0.001111767304266244</v>
+        <v>0.0166236265819902</v>
       </c>
       <c r="G12">
-        <v>0.001692089642706675</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0006040138159167935</v>
+      </c>
+      <c r="H12">
+        <v>-0.0009239504589640344</v>
+      </c>
+      <c r="I12">
+        <v>-0.01219056493908297</v>
+      </c>
+      <c r="J12">
+        <v>0.02665496189817674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06398240185008022</v>
+        <v>0.04364037847781895</v>
       </c>
       <c r="C13">
-        <v>-0.02135526980534145</v>
+        <v>-0.02932366834755953</v>
       </c>
       <c r="D13">
-        <v>-0.004870571923143944</v>
+        <v>-0.006560940875237672</v>
       </c>
       <c r="E13">
-        <v>-0.1073266339862277</v>
+        <v>-0.007006940483495943</v>
       </c>
       <c r="F13">
-        <v>-0.01553649613156358</v>
+        <v>0.1036204821312585</v>
       </c>
       <c r="G13">
-        <v>-0.005114577561187082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.0216738624303277</v>
+      </c>
+      <c r="H13">
+        <v>-0.0486598126830152</v>
+      </c>
+      <c r="I13">
+        <v>0.01233330311942449</v>
+      </c>
+      <c r="J13">
+        <v>0.05694339341946739</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03212424637785835</v>
+        <v>0.02756929511824276</v>
       </c>
       <c r="C14">
-        <v>-0.0110961200276692</v>
+        <v>-0.01462748969602964</v>
       </c>
       <c r="D14">
-        <v>0.02662700516267453</v>
+        <v>0.01064519450709775</v>
       </c>
       <c r="E14">
-        <v>-0.02650545477323818</v>
+        <v>-0.02374382279597449</v>
       </c>
       <c r="F14">
-        <v>-0.008655260809566218</v>
+        <v>0.04078931777668488</v>
       </c>
       <c r="G14">
-        <v>-0.02987561506239737</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02875629965005656</v>
+      </c>
+      <c r="H14">
+        <v>-0.0544631444956503</v>
+      </c>
+      <c r="I14">
+        <v>0.00945127427037915</v>
+      </c>
+      <c r="J14">
+        <v>0.01480308997437279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.04691392461940183</v>
+        <v>0.04546907508790133</v>
       </c>
       <c r="C16">
-        <v>-0.02543598290789103</v>
+        <v>-0.03324367990773499</v>
       </c>
       <c r="D16">
-        <v>-0.009965848012097472</v>
+        <v>0.00928985696128691</v>
       </c>
       <c r="E16">
-        <v>-0.03477743095081694</v>
+        <v>-0.002450235440351326</v>
       </c>
       <c r="F16">
-        <v>0.00426386045059709</v>
+        <v>0.03312762035972253</v>
       </c>
       <c r="G16">
-        <v>-0.006448324063654494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.00326711460957498</v>
+      </c>
+      <c r="H16">
+        <v>-0.007539577646215417</v>
+      </c>
+      <c r="I16">
+        <v>-0.009994734173630013</v>
+      </c>
+      <c r="J16">
+        <v>0.03616709237280365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05199732443754351</v>
+        <v>0.04815734370951533</v>
       </c>
       <c r="C19">
-        <v>-0.03299984424901281</v>
+        <v>-0.04235334687392969</v>
       </c>
       <c r="D19">
-        <v>-0.001376640234815552</v>
+        <v>0.01269300592717532</v>
       </c>
       <c r="E19">
-        <v>-0.0715657348598195</v>
+        <v>-0.01443099663063995</v>
       </c>
       <c r="F19">
-        <v>0.01713022919690626</v>
+        <v>0.08032930493883499</v>
       </c>
       <c r="G19">
-        <v>-0.03351847581580501</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.009248885446208907</v>
+      </c>
+      <c r="H19">
+        <v>-0.08552686863443082</v>
+      </c>
+      <c r="I19">
+        <v>0.032953049799612</v>
+      </c>
+      <c r="J19">
+        <v>0.04225240584941743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03735409081295549</v>
+        <v>0.01943150441333012</v>
       </c>
       <c r="C20">
-        <v>-0.04007865329822163</v>
+        <v>-0.0283217651959858</v>
       </c>
       <c r="D20">
-        <v>0.0172867599164977</v>
+        <v>0.01705016238184641</v>
       </c>
       <c r="E20">
-        <v>-0.06485151274680323</v>
+        <v>-0.01713267559506836</v>
       </c>
       <c r="F20">
-        <v>0.01336921221725017</v>
+        <v>0.06586782875150243</v>
       </c>
       <c r="G20">
-        <v>-0.01082615750981131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01307902201572224</v>
+      </c>
+      <c r="H20">
+        <v>-0.07312014962207328</v>
+      </c>
+      <c r="I20">
+        <v>0.02095433598083056</v>
+      </c>
+      <c r="J20">
+        <v>0.07403995135658417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03874593574388952</v>
+        <v>0.02476426212185816</v>
       </c>
       <c r="C21">
-        <v>-0.02580978266429087</v>
+        <v>-0.02584608883743926</v>
       </c>
       <c r="D21">
-        <v>0.009828086302929358</v>
+        <v>0.02519812547092378</v>
       </c>
       <c r="E21">
-        <v>-0.09452791034285647</v>
+        <v>-0.005015015210687565</v>
       </c>
       <c r="F21">
-        <v>-0.04901676664246275</v>
+        <v>0.07776217397585061</v>
       </c>
       <c r="G21">
-        <v>-0.01542306710106589</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03553274630387115</v>
+      </c>
+      <c r="H21">
+        <v>-0.02670747048784706</v>
+      </c>
+      <c r="I21">
+        <v>-0.01024178379335005</v>
+      </c>
+      <c r="J21">
+        <v>0.03037493362748865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04896611392083636</v>
+        <v>0.04446967556812621</v>
       </c>
       <c r="C24">
-        <v>-0.01743215032931926</v>
+        <v>-0.02269266921969841</v>
       </c>
       <c r="D24">
-        <v>3.728680716554071e-05</v>
+        <v>0.005894003989703568</v>
       </c>
       <c r="E24">
-        <v>-0.04270803012518681</v>
+        <v>-0.008091515689172813</v>
       </c>
       <c r="F24">
-        <v>0.0028965352159104</v>
+        <v>0.03992242593286718</v>
       </c>
       <c r="G24">
-        <v>0.0009371599714190653</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.002364807532697589</v>
+      </c>
+      <c r="H24">
+        <v>-0.006163772579972229</v>
+      </c>
+      <c r="I24">
+        <v>-0.008186840677736555</v>
+      </c>
+      <c r="J24">
+        <v>0.04191552526662461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.04966047482813082</v>
+        <v>0.04685885548962705</v>
       </c>
       <c r="C25">
-        <v>-0.007879699067012634</v>
+        <v>-0.02278828922953645</v>
       </c>
       <c r="D25">
-        <v>-0.002122965264039071</v>
+        <v>0.004634826855815783</v>
       </c>
       <c r="E25">
-        <v>-0.0418063155312078</v>
+        <v>-0.006038342042029103</v>
       </c>
       <c r="F25">
-        <v>-0.00757021047280191</v>
+        <v>0.04382459657989507</v>
       </c>
       <c r="G25">
-        <v>-0.009165750389050455</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.004979299596688095</v>
+      </c>
+      <c r="H25">
+        <v>-0.0006867771212558044</v>
+      </c>
+      <c r="I25">
+        <v>-0.009641821509493678</v>
+      </c>
+      <c r="J25">
+        <v>0.03443993988116591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.01286896528550777</v>
+        <v>0.01611405944128029</v>
       </c>
       <c r="C26">
-        <v>-0.02624386261422169</v>
+        <v>-0.02454897810063146</v>
       </c>
       <c r="D26">
-        <v>0.002876391361758809</v>
+        <v>0.004176660302686654</v>
       </c>
       <c r="E26">
-        <v>-0.03546860782605031</v>
+        <v>0.0007629694277419336</v>
       </c>
       <c r="F26">
-        <v>-0.01841609554223002</v>
+        <v>0.04442739185798542</v>
       </c>
       <c r="G26">
-        <v>-0.01971224932086598</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.01974684219247658</v>
+      </c>
+      <c r="H26">
+        <v>-0.03346438240400149</v>
+      </c>
+      <c r="I26">
+        <v>-0.003361859128260018</v>
+      </c>
+      <c r="J26">
+        <v>0.03744754626063821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1145674452903358</v>
+        <v>0.08088186692037228</v>
       </c>
       <c r="C27">
-        <v>-0.02980867562357629</v>
+        <v>-0.03038239834893616</v>
       </c>
       <c r="D27">
-        <v>0.0296122718918662</v>
+        <v>0.01305533884721773</v>
       </c>
       <c r="E27">
-        <v>-0.09704385755930656</v>
+        <v>-0.03120949107128837</v>
       </c>
       <c r="F27">
-        <v>-0.00916319563403409</v>
+        <v>0.06896794826320093</v>
       </c>
       <c r="G27">
-        <v>0.007978594963808518</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01639826765155969</v>
+      </c>
+      <c r="H27">
+        <v>-0.01222049433082308</v>
+      </c>
+      <c r="I27">
+        <v>0.02180160180914913</v>
+      </c>
+      <c r="J27">
+        <v>0.04215908514897772</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.002886755972932105</v>
+        <v>0.03830656771586731</v>
       </c>
       <c r="C28">
-        <v>0.243269313349066</v>
+        <v>0.223093471163521</v>
       </c>
       <c r="D28">
-        <v>-0.01254280012239684</v>
+        <v>-0.07929924501308573</v>
       </c>
       <c r="E28">
-        <v>-0.04690943861976787</v>
+        <v>0.02948637550912692</v>
       </c>
       <c r="F28">
-        <v>-0.02099018278732842</v>
+        <v>0.05834297960251778</v>
       </c>
       <c r="G28">
-        <v>-0.004913545570398698</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02476483506037301</v>
+      </c>
+      <c r="H28">
+        <v>0.001559357595012873</v>
+      </c>
+      <c r="I28">
+        <v>0.1530583596011047</v>
+      </c>
+      <c r="J28">
+        <v>-0.006405763480694928</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02170394951740322</v>
+        <v>0.02235150001085272</v>
       </c>
       <c r="C29">
-        <v>-0.01944269103254377</v>
+        <v>-0.01674111979028467</v>
       </c>
       <c r="D29">
-        <v>0.03291320290519781</v>
+        <v>0.01626365463034551</v>
       </c>
       <c r="E29">
-        <v>-0.02526094694841732</v>
+        <v>-0.02566499345463789</v>
       </c>
       <c r="F29">
-        <v>-0.01494539118533293</v>
+        <v>0.03608533297079908</v>
       </c>
       <c r="G29">
-        <v>-0.02418201941456439</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03092640907647789</v>
+      </c>
+      <c r="H29">
+        <v>-0.05027233607821704</v>
+      </c>
+      <c r="I29">
+        <v>0.001064930093457994</v>
+      </c>
+      <c r="J29">
+        <v>0.008486104978788343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1045373665343776</v>
+        <v>0.0940161567234096</v>
       </c>
       <c r="C30">
-        <v>-0.01876067672673058</v>
+        <v>-0.05722766251471157</v>
       </c>
       <c r="D30">
-        <v>0.02459410858305173</v>
+        <v>-0.02209750707618448</v>
       </c>
       <c r="E30">
-        <v>-0.1120267153622172</v>
+        <v>-0.02985865118874354</v>
       </c>
       <c r="F30">
-        <v>-0.007343127785244435</v>
+        <v>0.1025519921745009</v>
       </c>
       <c r="G30">
-        <v>-0.03432694040679898</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01338145069924144</v>
+      </c>
+      <c r="H30">
+        <v>-0.01708600757634663</v>
+      </c>
+      <c r="I30">
+        <v>-0.01246469603974943</v>
+      </c>
+      <c r="J30">
+        <v>0.03556218828053041</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05904176958869337</v>
+        <v>0.06300085085340502</v>
       </c>
       <c r="C31">
-        <v>-0.01551390542802968</v>
+        <v>-0.0237645346025539</v>
       </c>
       <c r="D31">
-        <v>0.02112987537950175</v>
+        <v>-0.004430040281661643</v>
       </c>
       <c r="E31">
-        <v>0.01793951272109002</v>
+        <v>-0.02065336899279659</v>
       </c>
       <c r="F31">
-        <v>-0.01187139731092506</v>
+        <v>0.001355882858225249</v>
       </c>
       <c r="G31">
-        <v>-0.05314300165086171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04137742003395051</v>
+      </c>
+      <c r="H31">
+        <v>-0.03248096530059057</v>
+      </c>
+      <c r="I31">
+        <v>0.007648838126526209</v>
+      </c>
+      <c r="J31">
+        <v>0.01151570213994187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06921112951046854</v>
+        <v>0.04633617619707426</v>
       </c>
       <c r="C32">
-        <v>-0.03291354036146772</v>
+        <v>-0.04515156779369683</v>
       </c>
       <c r="D32">
-        <v>0.01351134880145111</v>
+        <v>0.03080134637106327</v>
       </c>
       <c r="E32">
-        <v>-0.1074066507893596</v>
+        <v>-0.0254408478272457</v>
       </c>
       <c r="F32">
-        <v>0.007260275470838786</v>
+        <v>0.08761193676149875</v>
       </c>
       <c r="G32">
-        <v>-0.02642197704617649</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01275928524567557</v>
+      </c>
+      <c r="H32">
+        <v>-0.04061040006680865</v>
+      </c>
+      <c r="I32">
+        <v>0.02098539016561834</v>
+      </c>
+      <c r="J32">
+        <v>0.04390609710914229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06952994918741016</v>
+        <v>0.05949641396612278</v>
       </c>
       <c r="C33">
-        <v>-0.03913127137954996</v>
+        <v>-0.05484407273435976</v>
       </c>
       <c r="D33">
-        <v>0.01151368019244937</v>
+        <v>-0.002005645017761987</v>
       </c>
       <c r="E33">
-        <v>-0.06949997897688236</v>
+        <v>-0.006611532454547478</v>
       </c>
       <c r="F33">
-        <v>-0.04630632776046626</v>
+        <v>0.07709777473298113</v>
       </c>
       <c r="G33">
-        <v>-0.01642489810573602</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.0368072177687588</v>
+      </c>
+      <c r="H33">
+        <v>-0.03833997580838183</v>
+      </c>
+      <c r="I33">
+        <v>-0.01187018164748633</v>
+      </c>
+      <c r="J33">
+        <v>0.0487357004104519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04809386884431537</v>
+        <v>0.04708493519967089</v>
       </c>
       <c r="C34">
-        <v>-0.01700574482331084</v>
+        <v>-0.02856128848672383</v>
       </c>
       <c r="D34">
-        <v>0.0006990553996684504</v>
+        <v>0.01251472761247764</v>
       </c>
       <c r="E34">
-        <v>-0.02483417364709927</v>
+        <v>-0.01340412127314971</v>
       </c>
       <c r="F34">
-        <v>0.00396117721233689</v>
+        <v>0.03036368105351537</v>
       </c>
       <c r="G34">
-        <v>-0.009644441465806652</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.002686336478618232</v>
+      </c>
+      <c r="H34">
+        <v>-0.01052706570451879</v>
+      </c>
+      <c r="I34">
+        <v>-0.00935528786501209</v>
+      </c>
+      <c r="J34">
+        <v>0.03124529466893818</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.0125110416732896</v>
+        <v>0.01618577731965687</v>
       </c>
       <c r="C36">
-        <v>0.007204732874567825</v>
+        <v>-0.0008769018350224153</v>
       </c>
       <c r="D36">
-        <v>0.008978007106672429</v>
+        <v>0.005069664172966834</v>
       </c>
       <c r="E36">
-        <v>-0.02208799391137538</v>
+        <v>-0.009046582769088412</v>
       </c>
       <c r="F36">
-        <v>-0.007039094292476575</v>
+        <v>0.02801887005427093</v>
       </c>
       <c r="G36">
-        <v>-0.01730511329465771</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02268795656167676</v>
+      </c>
+      <c r="H36">
+        <v>-0.02870566106839943</v>
+      </c>
+      <c r="I36">
+        <v>-0.00584338316038269</v>
+      </c>
+      <c r="J36">
+        <v>0.001537323965462296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.0559208810270185</v>
+        <v>0.03495183513550747</v>
       </c>
       <c r="C38">
-        <v>-0.01160579707931164</v>
+        <v>-0.01329343923727072</v>
       </c>
       <c r="D38">
-        <v>0.02411769266645195</v>
+        <v>0.007467383732141918</v>
       </c>
       <c r="E38">
-        <v>-0.03253811459623243</v>
+        <v>-0.01106087693408321</v>
       </c>
       <c r="F38">
-        <v>-0.0001419236332582742</v>
+        <v>0.05082803730932341</v>
       </c>
       <c r="G38">
-        <v>0.02596262688798125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02687195946633824</v>
+      </c>
+      <c r="H38">
+        <v>-0.01672619247544785</v>
+      </c>
+      <c r="I38">
+        <v>-0.01285850936815799</v>
+      </c>
+      <c r="J38">
+        <v>0.002631934287835928</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07453711037587681</v>
+        <v>0.05915374760570823</v>
       </c>
       <c r="C39">
-        <v>-0.01516934273205578</v>
+        <v>-0.04095266209464764</v>
       </c>
       <c r="D39">
-        <v>0.005712788937165691</v>
+        <v>0.007235289099124937</v>
       </c>
       <c r="E39">
-        <v>-0.0419412806078456</v>
+        <v>-0.01485158258593713</v>
       </c>
       <c r="F39">
-        <v>-0.01988811730694242</v>
+        <v>0.05547707419799137</v>
       </c>
       <c r="G39">
-        <v>-0.008943745482568058</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01862412233154128</v>
+      </c>
+      <c r="H39">
+        <v>0.0006539992340801483</v>
+      </c>
+      <c r="I39">
+        <v>-0.03091407094746209</v>
+      </c>
+      <c r="J39">
+        <v>0.04627055717749357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07556954371461712</v>
+        <v>0.0579902648135152</v>
       </c>
       <c r="C40">
-        <v>-0.0363221669198233</v>
+        <v>-0.0466508489324729</v>
       </c>
       <c r="D40">
-        <v>0.01055440880393022</v>
+        <v>-0.006765921520343159</v>
       </c>
       <c r="E40">
-        <v>-0.1034056249600379</v>
+        <v>-0.02029598436407254</v>
       </c>
       <c r="F40">
-        <v>-0.03022129237150047</v>
+        <v>0.09508933514340422</v>
       </c>
       <c r="G40">
-        <v>0.0318395065868001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02304322903641271</v>
+      </c>
+      <c r="H40">
+        <v>-0.05588393391004236</v>
+      </c>
+      <c r="I40">
+        <v>0.01615873655095099</v>
+      </c>
+      <c r="J40">
+        <v>0.1146319690960449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.002502179864883812</v>
+        <v>0.003098234005146199</v>
       </c>
       <c r="C41">
-        <v>-0.01349835410435202</v>
+        <v>-0.01049959496076712</v>
       </c>
       <c r="D41">
-        <v>0.02457423734210633</v>
+        <v>0.004493091212648921</v>
       </c>
       <c r="E41">
-        <v>-0.01304543856672995</v>
+        <v>-0.0069349917624395</v>
       </c>
       <c r="F41">
-        <v>-0.03106253645409517</v>
+        <v>0.01431952015937467</v>
       </c>
       <c r="G41">
-        <v>-0.02728290108097742</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03672899256894991</v>
+      </c>
+      <c r="H41">
+        <v>-0.03399597466001271</v>
+      </c>
+      <c r="I41">
+        <v>0.02018425941185269</v>
+      </c>
+      <c r="J41">
+        <v>0.008838659088467805</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1350188959815815</v>
+        <v>0.2153739286133981</v>
       </c>
       <c r="C42">
-        <v>-0.172965867839295</v>
+        <v>-0.1621168631201512</v>
       </c>
       <c r="D42">
-        <v>-0.9367982552910441</v>
+        <v>-0.01419187704993121</v>
       </c>
       <c r="E42">
-        <v>0.05501375697004712</v>
+        <v>0.9346329259646889</v>
       </c>
       <c r="F42">
-        <v>0.02309464677222533</v>
+        <v>-0.1512999327190687</v>
       </c>
       <c r="G42">
-        <v>-0.07818641311088576</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.00125764516199791</v>
+      </c>
+      <c r="H42">
+        <v>0.0004171049077209977</v>
+      </c>
+      <c r="I42">
+        <v>0.04306045615772469</v>
+      </c>
+      <c r="J42">
+        <v>0.01939636377644268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.006109371413514809</v>
+        <v>0.005627465211516016</v>
       </c>
       <c r="C43">
-        <v>-0.01722053690643868</v>
+        <v>-0.01474325692425206</v>
       </c>
       <c r="D43">
-        <v>0.01813390085039992</v>
+        <v>0.003130560456710862</v>
       </c>
       <c r="E43">
-        <v>-0.0349309360873533</v>
+        <v>-0.007403093235478185</v>
       </c>
       <c r="F43">
-        <v>-0.006921182392274589</v>
+        <v>0.02870707051505431</v>
       </c>
       <c r="G43">
-        <v>-0.02259707624720949</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02019725799394585</v>
+      </c>
+      <c r="H43">
+        <v>-0.03284822298264013</v>
+      </c>
+      <c r="I43">
+        <v>0.01316988035299937</v>
+      </c>
+      <c r="J43">
+        <v>0.01856988441865094</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.03938374979725344</v>
+        <v>0.02907709858654127</v>
       </c>
       <c r="C44">
-        <v>-0.04508334407161553</v>
+        <v>-0.04094915795119385</v>
       </c>
       <c r="D44">
-        <v>0.01570992289903967</v>
+        <v>0.01605913060505967</v>
       </c>
       <c r="E44">
-        <v>-0.1191087067756187</v>
+        <v>-0.007290200903809664</v>
       </c>
       <c r="F44">
-        <v>-0.09113982738579095</v>
+        <v>0.1216193038293311</v>
       </c>
       <c r="G44">
-        <v>-0.03447483330648937</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06146851345918519</v>
+      </c>
+      <c r="H44">
+        <v>-0.1034141870585298</v>
+      </c>
+      <c r="I44">
+        <v>0.01923914734449065</v>
+      </c>
+      <c r="J44">
+        <v>0.02561613606842114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02642435880509215</v>
+        <v>0.02543397081836952</v>
       </c>
       <c r="C46">
-        <v>-0.01761672381774171</v>
+        <v>-0.03412619975854576</v>
       </c>
       <c r="D46">
-        <v>0.03140924846841853</v>
+        <v>0.009822336804378225</v>
       </c>
       <c r="E46">
-        <v>-0.02216976935783452</v>
+        <v>-0.02588069269124676</v>
       </c>
       <c r="F46">
-        <v>-0.02261712035336165</v>
+        <v>0.04546875706653281</v>
       </c>
       <c r="G46">
-        <v>-0.0308960580227609</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02594484791890303</v>
+      </c>
+      <c r="H46">
+        <v>-0.05389948809911562</v>
+      </c>
+      <c r="I46">
+        <v>-0.0008532845483889097</v>
+      </c>
+      <c r="J46">
+        <v>0.01940567674503319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08731388595968387</v>
+        <v>0.09209743430736403</v>
       </c>
       <c r="C47">
-        <v>-0.01028377844829914</v>
+        <v>-0.01844997482056401</v>
       </c>
       <c r="D47">
-        <v>0.02036041506715966</v>
+        <v>-0.001444724475206018</v>
       </c>
       <c r="E47">
-        <v>0.0239415953916273</v>
+        <v>-0.02412938457402096</v>
       </c>
       <c r="F47">
-        <v>-0.007948124244417216</v>
+        <v>-0.01222452840665058</v>
       </c>
       <c r="G47">
-        <v>-0.03137531703841452</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04214899852570978</v>
+      </c>
+      <c r="H47">
+        <v>-0.05738411945963588</v>
+      </c>
+      <c r="I47">
+        <v>0.01410355052275072</v>
+      </c>
+      <c r="J47">
+        <v>0.02035184957424882</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01706755842154723</v>
+        <v>0.01917840967900556</v>
       </c>
       <c r="C48">
-        <v>-0.02063241784661828</v>
+        <v>-0.01971268077945485</v>
       </c>
       <c r="D48">
-        <v>0.01737225518856362</v>
+        <v>0.008473403008919231</v>
       </c>
       <c r="E48">
-        <v>-0.0276493144035212</v>
+        <v>-0.01199436005990363</v>
       </c>
       <c r="F48">
-        <v>-0.00950331119884221</v>
+        <v>0.03027075418149249</v>
       </c>
       <c r="G48">
-        <v>-0.005457909973149204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01466273324252841</v>
+      </c>
+      <c r="H48">
+        <v>-0.02401244842676944</v>
+      </c>
+      <c r="I48">
+        <v>0.01012180800364621</v>
+      </c>
+      <c r="J48">
+        <v>0.01070875713448031</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.08658240388146846</v>
+        <v>0.08867052064696296</v>
       </c>
       <c r="C50">
-        <v>-0.03592352024394398</v>
+        <v>-0.03167529276027509</v>
       </c>
       <c r="D50">
-        <v>0.02659583348622224</v>
+        <v>0.02018602527247194</v>
       </c>
       <c r="E50">
-        <v>0.01704278858601137</v>
+        <v>-0.02167258938254591</v>
       </c>
       <c r="F50">
-        <v>0.002282738660918624</v>
+        <v>-0.005581137319479585</v>
       </c>
       <c r="G50">
-        <v>-0.03830150885678235</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.003269919363435089</v>
+      </c>
+      <c r="H50">
+        <v>-0.04072865095473714</v>
+      </c>
+      <c r="I50">
+        <v>-0.01295517036758871</v>
+      </c>
+      <c r="J50">
+        <v>0.00364116184286846</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06640385344451237</v>
+        <v>0.04687596356404368</v>
       </c>
       <c r="C51">
-        <v>0.01907449953454396</v>
+        <v>-0.003515573409192146</v>
       </c>
       <c r="D51">
-        <v>0.002998952478660164</v>
+        <v>-0.01325260735805485</v>
       </c>
       <c r="E51">
-        <v>-0.08532149838517451</v>
+        <v>-0.0112689896828015</v>
       </c>
       <c r="F51">
-        <v>-0.05408254710216243</v>
+        <v>0.09490060066169143</v>
       </c>
       <c r="G51">
-        <v>-0.06557170470434569</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.0540497024611554</v>
+      </c>
+      <c r="H51">
+        <v>-0.04922607721092611</v>
+      </c>
+      <c r="I51">
+        <v>0.02434855067044734</v>
+      </c>
+      <c r="J51">
+        <v>0.03872180025671788</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.144639007079297</v>
+        <v>0.1279218490323758</v>
       </c>
       <c r="C53">
-        <v>-0.01063535860553757</v>
+        <v>-0.03594460457223739</v>
       </c>
       <c r="D53">
-        <v>0.04351022646469081</v>
+        <v>0.002491879616594505</v>
       </c>
       <c r="E53">
-        <v>0.04917768907048883</v>
+        <v>-0.0463711507966895</v>
       </c>
       <c r="F53">
-        <v>0.00995966560186925</v>
+        <v>-0.04186086939708181</v>
       </c>
       <c r="G53">
-        <v>-0.03652577206360548</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02430258011432915</v>
+      </c>
+      <c r="H53">
+        <v>-0.002031101528190627</v>
+      </c>
+      <c r="I53">
+        <v>0.03640734079369207</v>
+      </c>
+      <c r="J53">
+        <v>0.02965287275547096</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02736596112518959</v>
+        <v>0.02626043844213828</v>
       </c>
       <c r="C54">
-        <v>-0.000463300853190083</v>
+        <v>-0.002300366322508364</v>
       </c>
       <c r="D54">
-        <v>0.03644150350784293</v>
+        <v>0.005809405455343698</v>
       </c>
       <c r="E54">
-        <v>-0.03124147620844134</v>
+        <v>-0.02673525689927206</v>
       </c>
       <c r="F54">
-        <v>-0.04742826084675297</v>
+        <v>0.03767555549562866</v>
       </c>
       <c r="G54">
-        <v>-0.01042186740666952</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05135043803857865</v>
+      </c>
+      <c r="H54">
+        <v>-0.04294528160001173</v>
+      </c>
+      <c r="I54">
+        <v>0.02647267672226802</v>
+      </c>
+      <c r="J54">
+        <v>-0.006520734205941933</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09743191702195851</v>
+        <v>0.1015174733777169</v>
       </c>
       <c r="C55">
-        <v>0.001773142552114388</v>
+        <v>-0.01756817974268374</v>
       </c>
       <c r="D55">
-        <v>0.03563952064254772</v>
+        <v>0.01610793499124119</v>
       </c>
       <c r="E55">
-        <v>0.008664789398325459</v>
+        <v>-0.03043493703088807</v>
       </c>
       <c r="F55">
-        <v>0.03668934261201229</v>
+        <v>-0.0292423397081142</v>
       </c>
       <c r="G55">
-        <v>0.01679935164104486</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.006295210115874263</v>
+      </c>
+      <c r="H55">
+        <v>-0.01458943527979659</v>
+      </c>
+      <c r="I55">
+        <v>0.01537693280292217</v>
+      </c>
+      <c r="J55">
+        <v>0.0299327979461661</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1783629148778165</v>
+        <v>0.1694831048604826</v>
       </c>
       <c r="C56">
-        <v>0.01248768371013864</v>
+        <v>-0.01664230054537701</v>
       </c>
       <c r="D56">
-        <v>0.07508225117018819</v>
+        <v>0.004222698128787519</v>
       </c>
       <c r="E56">
-        <v>0.09573753347482036</v>
+        <v>-0.08312731430433215</v>
       </c>
       <c r="F56">
-        <v>0.08470013453267308</v>
+        <v>-0.08728188649904134</v>
       </c>
       <c r="G56">
-        <v>0.002157589237715204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02784247074173314</v>
+      </c>
+      <c r="H56">
+        <v>0.03997253572345613</v>
+      </c>
+      <c r="I56">
+        <v>0.03070157223114538</v>
+      </c>
+      <c r="J56">
+        <v>0.04197486475722059</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09037872381297699</v>
+        <v>0.07162842709043805</v>
       </c>
       <c r="C57">
-        <v>-0.02932276286294325</v>
+        <v>-0.03949225200036978</v>
       </c>
       <c r="D57">
-        <v>0.02357736551146423</v>
+        <v>-0.005803344966755893</v>
       </c>
       <c r="E57">
-        <v>-0.04858747233574144</v>
+        <v>-0.009855746141469239</v>
       </c>
       <c r="F57">
-        <v>-0.02879223513935032</v>
+        <v>0.06177206593263558</v>
       </c>
       <c r="G57">
-        <v>-0.0304952793509704</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02314009992971434</v>
+      </c>
+      <c r="H57">
+        <v>-0.03047984927413169</v>
+      </c>
+      <c r="I57">
+        <v>-0.004337009091047583</v>
+      </c>
+      <c r="J57">
+        <v>0.04314945004570014</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.178331612321931</v>
+        <v>0.204218605860706</v>
       </c>
       <c r="C58">
-        <v>-0.01832430090396347</v>
+        <v>-0.111153584816032</v>
       </c>
       <c r="D58">
-        <v>-0.03478853187566132</v>
+        <v>-0.05930369083308114</v>
       </c>
       <c r="E58">
-        <v>-0.1230296993634889</v>
+        <v>0.01219755674941248</v>
       </c>
       <c r="F58">
-        <v>0.06501318021703897</v>
+        <v>0.2376431953576781</v>
       </c>
       <c r="G58">
-        <v>-0.04410868744900943</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1655936394154344</v>
+      </c>
+      <c r="H58">
+        <v>-0.3483297690747784</v>
+      </c>
+      <c r="I58">
+        <v>-0.1868003574017463</v>
+      </c>
+      <c r="J58">
+        <v>-0.7569264418266338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.01308436918232815</v>
+        <v>0.03933311036327061</v>
       </c>
       <c r="C59">
-        <v>0.2014320188398103</v>
+        <v>0.1793130488275572</v>
       </c>
       <c r="D59">
-        <v>0.01574177860021816</v>
+        <v>-0.08368185208946964</v>
       </c>
       <c r="E59">
-        <v>-0.05976865783842911</v>
+        <v>-0.00704258676388789</v>
       </c>
       <c r="F59">
-        <v>-0.01302855741048478</v>
+        <v>0.07318430964721447</v>
       </c>
       <c r="G59">
-        <v>-0.01196864782306231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.006194718130494424</v>
+      </c>
+      <c r="H59">
+        <v>0.02033682192149618</v>
+      </c>
+      <c r="I59">
+        <v>0.05554077151168387</v>
+      </c>
+      <c r="J59">
+        <v>-0.01973474073628424</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1883041138708605</v>
+        <v>0.1856078656488721</v>
       </c>
       <c r="C60">
-        <v>0.09524386254651855</v>
+        <v>0.02716821834417875</v>
       </c>
       <c r="D60">
-        <v>0.01318382649129815</v>
+        <v>-0.0639226323388116</v>
       </c>
       <c r="E60">
-        <v>-0.1888832366753116</v>
+        <v>-0.01496990861150238</v>
       </c>
       <c r="F60">
-        <v>-0.05689980448231567</v>
+        <v>0.205110295553796</v>
       </c>
       <c r="G60">
-        <v>-0.004561291829433295</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.07040438929869169</v>
+      </c>
+      <c r="H60">
+        <v>0.2732520397260795</v>
+      </c>
+      <c r="I60">
+        <v>-0.08907627815653617</v>
+      </c>
+      <c r="J60">
+        <v>0.02487691850006303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.05017595500690727</v>
+        <v>0.04059573583124497</v>
       </c>
       <c r="C61">
-        <v>-0.004004864707482171</v>
+        <v>-0.02430043411885857</v>
       </c>
       <c r="D61">
-        <v>-0.001227921415703114</v>
+        <v>0.00836260411926836</v>
       </c>
       <c r="E61">
-        <v>-0.03986703624141377</v>
+        <v>-0.005182672398610721</v>
       </c>
       <c r="F61">
-        <v>-0.007656126794327551</v>
+        <v>0.03855032895954596</v>
       </c>
       <c r="G61">
-        <v>-0.005067869278980917</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01003597518584583</v>
+      </c>
+      <c r="H61">
+        <v>0.004261641478544919</v>
+      </c>
+      <c r="I61">
+        <v>-0.03626443748660537</v>
+      </c>
+      <c r="J61">
+        <v>0.02451017620123649</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.0468204480800214</v>
+        <v>0.0315003986754428</v>
       </c>
       <c r="C63">
-        <v>-0.004306842455354592</v>
+        <v>-0.01749402169085882</v>
       </c>
       <c r="D63">
-        <v>0.02297707186839361</v>
+        <v>0.004381906497673291</v>
       </c>
       <c r="E63">
-        <v>-0.03456553777155799</v>
+        <v>-0.01280503636673298</v>
       </c>
       <c r="F63">
-        <v>-0.002837172346343965</v>
+        <v>0.02844171537777857</v>
       </c>
       <c r="G63">
-        <v>-0.02509111146111215</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.0118617645282235</v>
+      </c>
+      <c r="H63">
+        <v>-0.05065413793814611</v>
+      </c>
+      <c r="I63">
+        <v>0.03442420500832032</v>
+      </c>
+      <c r="J63">
+        <v>0.03195650231115726</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.08430452779109535</v>
+        <v>0.05819217584005159</v>
       </c>
       <c r="C64">
-        <v>-0.04885961769246535</v>
+        <v>-0.04390374785931176</v>
       </c>
       <c r="D64">
-        <v>0.06400367915968369</v>
+        <v>0.02962610880315438</v>
       </c>
       <c r="E64">
-        <v>-0.05391471999353623</v>
+        <v>-0.04027448766122235</v>
       </c>
       <c r="F64">
-        <v>-0.05801067648077451</v>
+        <v>0.04984849552376246</v>
       </c>
       <c r="G64">
-        <v>0.02032470383050529</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05547928176226594</v>
+      </c>
+      <c r="H64">
+        <v>0.001348932584238276</v>
+      </c>
+      <c r="I64">
+        <v>0.03386321084765245</v>
+      </c>
+      <c r="J64">
+        <v>0.09494882245608116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01992209957746225</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.008088587653051958</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.009621259477139744</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.004740580232907918</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001666488939218416</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02174558050905006</v>
+      </c>
+      <c r="H65">
+        <v>0.003265449315392415</v>
+      </c>
+      <c r="I65">
+        <v>-0.01445474689602137</v>
+      </c>
+      <c r="J65">
+        <v>0.002741414959748519</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.09366663579244454</v>
+        <v>0.0706732096900603</v>
       </c>
       <c r="C66">
-        <v>-0.02997341983660208</v>
+        <v>-0.05779798046495854</v>
       </c>
       <c r="D66">
-        <v>0.04036023378021397</v>
+        <v>0.004692509152660607</v>
       </c>
       <c r="E66">
-        <v>-0.07576182455166941</v>
+        <v>-0.04298937589967027</v>
       </c>
       <c r="F66">
-        <v>-0.04286599231936884</v>
+        <v>0.06939574780118388</v>
       </c>
       <c r="G66">
-        <v>-0.01795256682783717</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01729643334451008</v>
+      </c>
+      <c r="H66">
+        <v>0.002829518661275303</v>
+      </c>
+      <c r="I66">
+        <v>-0.0386738725265018</v>
+      </c>
+      <c r="J66">
+        <v>0.0728695562472573</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06283522403588108</v>
+        <v>0.04665267498557348</v>
       </c>
       <c r="C67">
-        <v>0.01283165370356076</v>
+        <v>0.002268249364848647</v>
       </c>
       <c r="D67">
-        <v>0.0109676965131454</v>
+        <v>-0.002531109444714387</v>
       </c>
       <c r="E67">
-        <v>-0.02939912704286391</v>
+        <v>-0.009622219576954333</v>
       </c>
       <c r="F67">
-        <v>-0.005268806947901866</v>
+        <v>0.0405450279877884</v>
       </c>
       <c r="G67">
-        <v>0.03771426255135719</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03352776423047251</v>
+      </c>
+      <c r="H67">
+        <v>0.006202381713848574</v>
+      </c>
+      <c r="I67">
+        <v>-0.03762010982670705</v>
+      </c>
+      <c r="J67">
+        <v>0.01486353429798201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.01353645911894135</v>
+        <v>0.04518290417646184</v>
       </c>
       <c r="C68">
-        <v>0.2499690633813715</v>
+        <v>0.2203423474204436</v>
       </c>
       <c r="D68">
-        <v>-0.001242355199202864</v>
+        <v>-0.09468862669302333</v>
       </c>
       <c r="E68">
-        <v>-0.04266104669766152</v>
+        <v>0.00730265237387471</v>
       </c>
       <c r="F68">
-        <v>-0.003524727181894517</v>
+        <v>0.05673355917775435</v>
       </c>
       <c r="G68">
-        <v>-0.02529439705923217</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.002802698866816643</v>
+      </c>
+      <c r="H68">
+        <v>0.01264039200192061</v>
+      </c>
+      <c r="I68">
+        <v>0.1615325469881283</v>
+      </c>
+      <c r="J68">
+        <v>-0.07059575051988386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.07304873818075971</v>
+        <v>0.07320921699643813</v>
       </c>
       <c r="C69">
-        <v>-0.01375029099686931</v>
+        <v>-0.02238547698932833</v>
       </c>
       <c r="D69">
-        <v>0.0225335436953406</v>
+        <v>0.000269357514089124</v>
       </c>
       <c r="E69">
-        <v>0.01704718115680396</v>
+        <v>-0.02938467416440551</v>
       </c>
       <c r="F69">
-        <v>0.001453534747977929</v>
+        <v>-0.002121258894104543</v>
       </c>
       <c r="G69">
-        <v>-0.02897623790024444</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02626372111612016</v>
+      </c>
+      <c r="H69">
+        <v>-0.02815529952282207</v>
+      </c>
+      <c r="I69">
+        <v>-0.005161620531147147</v>
+      </c>
+      <c r="J69">
+        <v>0.02877953586667683</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.01361993276572373</v>
+        <v>0.05148146682288563</v>
       </c>
       <c r="C71">
-        <v>0.2725505832803141</v>
+        <v>0.2296837367767092</v>
       </c>
       <c r="D71">
-        <v>-0.001148000227942763</v>
+        <v>-0.105287870939</v>
       </c>
       <c r="E71">
-        <v>-0.08483869205948529</v>
+        <v>0.02499741524974522</v>
       </c>
       <c r="F71">
-        <v>-0.01666136757600371</v>
+        <v>0.08291068567326607</v>
       </c>
       <c r="G71">
-        <v>-0.03351370708878636</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.0136768706859818</v>
+      </c>
+      <c r="H71">
+        <v>0.02965849033623691</v>
+      </c>
+      <c r="I71">
+        <v>0.1243843030691705</v>
+      </c>
+      <c r="J71">
+        <v>-0.03170654269945053</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.115259610224058</v>
+        <v>0.1230553478247771</v>
       </c>
       <c r="C72">
-        <v>0.003661422208875529</v>
+        <v>-0.03018676926601983</v>
       </c>
       <c r="D72">
-        <v>0.03900677406152277</v>
+        <v>0.0006667771912627601</v>
       </c>
       <c r="E72">
-        <v>-0.0978065781385339</v>
+        <v>-0.05871822695261895</v>
       </c>
       <c r="F72">
-        <v>0.008697732475817649</v>
+        <v>0.08197601439793963</v>
       </c>
       <c r="G72">
-        <v>0.01891543780025391</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04340797814786512</v>
+      </c>
+      <c r="H72">
+        <v>0.01417980747055534</v>
+      </c>
+      <c r="I72">
+        <v>-0.07414721234723787</v>
+      </c>
+      <c r="J72">
+        <v>-0.08721461164296775</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2898400690658189</v>
+        <v>0.2707238481550884</v>
       </c>
       <c r="C73">
-        <v>0.1626985213592589</v>
+        <v>0.0495015326953173</v>
       </c>
       <c r="D73">
-        <v>-0.0353018816412825</v>
+        <v>-0.1191836105488098</v>
       </c>
       <c r="E73">
-        <v>-0.337591630392918</v>
+        <v>0.026495554689568</v>
       </c>
       <c r="F73">
-        <v>-0.05223125623904399</v>
+        <v>0.3100286046768219</v>
       </c>
       <c r="G73">
-        <v>0.03031857729705579</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1736206161144464</v>
+      </c>
+      <c r="H73">
+        <v>0.4743468897367293</v>
+      </c>
+      <c r="I73">
+        <v>-0.2698939828382608</v>
+      </c>
+      <c r="J73">
+        <v>0.0542094609767416</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1609854282256743</v>
+        <v>0.1521234278116678</v>
       </c>
       <c r="C74">
-        <v>0.001832792260380938</v>
+        <v>-0.02669992043114432</v>
       </c>
       <c r="D74">
-        <v>0.04127234176212769</v>
+        <v>-0.007382049576562091</v>
       </c>
       <c r="E74">
-        <v>0.02043415751904541</v>
+        <v>-0.04527006223995544</v>
       </c>
       <c r="F74">
-        <v>0.06056779109902744</v>
+        <v>-0.05422595833092204</v>
       </c>
       <c r="G74">
-        <v>-0.05095386246927608</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01813564244090757</v>
+      </c>
+      <c r="H74">
+        <v>0.02542138258918274</v>
+      </c>
+      <c r="I74">
+        <v>0.01837676664696298</v>
+      </c>
+      <c r="J74">
+        <v>0.08544417939248015</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2334517927207506</v>
+        <v>0.2431536142288894</v>
       </c>
       <c r="C75">
-        <v>0.01144202333117573</v>
+        <v>-0.02619814192017636</v>
       </c>
       <c r="D75">
-        <v>0.06342289508802006</v>
+        <v>-0.02308326250042388</v>
       </c>
       <c r="E75">
-        <v>0.1289841615739379</v>
+        <v>-0.1020793711508983</v>
       </c>
       <c r="F75">
-        <v>0.04385545883048492</v>
+        <v>-0.1484590078301891</v>
       </c>
       <c r="G75">
-        <v>-0.04478646215912861</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.004506783002014163</v>
+      </c>
+      <c r="H75">
+        <v>0.01342122748957031</v>
+      </c>
+      <c r="I75">
+        <v>0.0921408431477652</v>
+      </c>
+      <c r="J75">
+        <v>0.02144083955935936</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2463936524875662</v>
+        <v>0.2673533187904549</v>
       </c>
       <c r="C76">
-        <v>0.01172666151806694</v>
+        <v>-0.01332823831510819</v>
       </c>
       <c r="D76">
-        <v>0.09912733070178781</v>
+        <v>0.012450072390143</v>
       </c>
       <c r="E76">
-        <v>0.1290569774276857</v>
+        <v>-0.1275358949475658</v>
       </c>
       <c r="F76">
-        <v>0.07873108768234213</v>
+        <v>-0.1804341229959455</v>
       </c>
       <c r="G76">
-        <v>-0.03426265621972921</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04941262150270958</v>
+      </c>
+      <c r="H76">
+        <v>0.04290268044121762</v>
+      </c>
+      <c r="I76">
+        <v>0.02667912903727824</v>
+      </c>
+      <c r="J76">
+        <v>0.06548496109758596</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1364732442545369</v>
+        <v>0.1270260859992876</v>
       </c>
       <c r="C77">
-        <v>-0.02846449339844168</v>
+        <v>-0.06161099063724853</v>
       </c>
       <c r="D77">
-        <v>-0.04156337563475479</v>
+        <v>0.01141104033055874</v>
       </c>
       <c r="E77">
-        <v>-0.1512620902581087</v>
+        <v>0.04701392936235567</v>
       </c>
       <c r="F77">
-        <v>-0.003122069138642857</v>
+        <v>0.165264653213113</v>
       </c>
       <c r="G77">
-        <v>0.05765139758856403</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.01570802396431772</v>
+      </c>
+      <c r="H77">
+        <v>-0.2419168635185011</v>
+      </c>
+      <c r="I77">
+        <v>0.2328644568268279</v>
+      </c>
+      <c r="J77">
+        <v>0.1004575857992831</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.0872649220282346</v>
+        <v>0.08248735161526809</v>
       </c>
       <c r="C78">
-        <v>-0.04294092810914939</v>
+        <v>-0.07126692234093697</v>
       </c>
       <c r="D78">
-        <v>-0.01717672875602025</v>
+        <v>0.02891111273014768</v>
       </c>
       <c r="E78">
-        <v>-0.04945986816500613</v>
+        <v>-0.003676938175611131</v>
       </c>
       <c r="F78">
-        <v>-0.01025853726581628</v>
+        <v>0.0722326612999578</v>
       </c>
       <c r="G78">
-        <v>-0.01808458162436268</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01100821756437209</v>
+      </c>
+      <c r="H78">
+        <v>-0.02695518491779883</v>
+      </c>
+      <c r="I78">
+        <v>0.02383901089407413</v>
+      </c>
+      <c r="J78">
+        <v>0.04253000713060805</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.07048518174603456</v>
+        <v>0.1502705322691829</v>
       </c>
       <c r="C80">
-        <v>-0.01957055853159436</v>
+        <v>0.3654463104977611</v>
       </c>
       <c r="D80">
-        <v>-0.03198881563777674</v>
+        <v>0.9015608678139524</v>
       </c>
       <c r="E80">
-        <v>0.02956695296327577</v>
+        <v>0.0599829885168819</v>
       </c>
       <c r="F80">
-        <v>0.1400170280919536</v>
+        <v>0.04707979997031879</v>
       </c>
       <c r="G80">
-        <v>0.9374723312086788</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04389661235105553</v>
+      </c>
+      <c r="H80">
+        <v>0.05750061610148548</v>
+      </c>
+      <c r="I80">
+        <v>-0.0298050280878358</v>
+      </c>
+      <c r="J80">
+        <v>-0.09778050052654172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1636474357842539</v>
+        <v>0.1791228648554757</v>
       </c>
       <c r="C81">
-        <v>0.01193412836412874</v>
+        <v>-0.006396876998409812</v>
       </c>
       <c r="D81">
-        <v>0.05488410786637304</v>
+        <v>-0.006424921560232348</v>
       </c>
       <c r="E81">
-        <v>0.1617543207628896</v>
+        <v>-0.08336214030122831</v>
       </c>
       <c r="F81">
-        <v>0.1081222674828914</v>
+        <v>-0.1636145074820737</v>
       </c>
       <c r="G81">
-        <v>-0.03450005076747543</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.03032507459025167</v>
+      </c>
+      <c r="H81">
+        <v>0.0049544476962845</v>
+      </c>
+      <c r="I81">
+        <v>0.05948290403819344</v>
+      </c>
+      <c r="J81">
+        <v>0.00658534639500391</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.09323561146442162</v>
+        <v>0.07019801104810339</v>
       </c>
       <c r="C83">
-        <v>-0.04757830881960264</v>
+        <v>-0.05044226384877052</v>
       </c>
       <c r="D83">
-        <v>-0.07378145292187095</v>
+        <v>0.001423390831245095</v>
       </c>
       <c r="E83">
-        <v>-0.01161604793501373</v>
+        <v>0.04002496808168063</v>
       </c>
       <c r="F83">
-        <v>-0.06015505328491423</v>
+        <v>0.04377139653077266</v>
       </c>
       <c r="G83">
-        <v>-0.01997545305088196</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05978741035501293</v>
+      </c>
+      <c r="H83">
+        <v>-0.02309242366590644</v>
+      </c>
+      <c r="I83">
+        <v>0.02477558868689673</v>
+      </c>
+      <c r="J83">
+        <v>0.07575395123618253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2329241329027053</v>
+        <v>0.2507440248880678</v>
       </c>
       <c r="C85">
-        <v>-0.04775167266097126</v>
+        <v>-0.05020424399160776</v>
       </c>
       <c r="D85">
-        <v>0.05543691858447115</v>
+        <v>0.008730038019021665</v>
       </c>
       <c r="E85">
-        <v>0.1590400874120386</v>
+        <v>-0.0860797822548673</v>
       </c>
       <c r="F85">
-        <v>0.06878180135622836</v>
+        <v>-0.184647442934433</v>
       </c>
       <c r="G85">
-        <v>-0.02137586761593929</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.00844234546778214</v>
+      </c>
+      <c r="H85">
+        <v>-0.02309804881790894</v>
+      </c>
+      <c r="I85">
+        <v>0.05043738811104661</v>
+      </c>
+      <c r="J85">
+        <v>0.07469995857059336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04304450875927191</v>
+        <v>0.02688098044125957</v>
       </c>
       <c r="C86">
-        <v>-0.05035823383217831</v>
+        <v>-0.06237835577305698</v>
       </c>
       <c r="D86">
-        <v>0.01576751259881975</v>
+        <v>0.02308308560313644</v>
       </c>
       <c r="E86">
-        <v>-0.06088060207286374</v>
+        <v>-0.009207315269179809</v>
       </c>
       <c r="F86">
-        <v>0.0009858469677827923</v>
+        <v>0.06748008376660314</v>
       </c>
       <c r="G86">
-        <v>-0.03497736129322819</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.003839704736554084</v>
+      </c>
+      <c r="H86">
+        <v>-0.06628814992956032</v>
+      </c>
+      <c r="I86">
+        <v>0.02576858495427035</v>
+      </c>
+      <c r="J86">
+        <v>0.03851251797575898</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.0251643851359373</v>
+        <v>0.03561833508398062</v>
       </c>
       <c r="C87">
-        <v>0.05046916058341196</v>
+        <v>0.01009331137557311</v>
       </c>
       <c r="D87">
-        <v>0.008516074264968627</v>
+        <v>-0.008193427747341159</v>
       </c>
       <c r="E87">
-        <v>-0.09108403452176968</v>
+        <v>-0.005122007579654653</v>
       </c>
       <c r="F87">
-        <v>0.02128987244917364</v>
+        <v>0.1016021069677321</v>
       </c>
       <c r="G87">
-        <v>-0.02740306860625547</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02144476165669031</v>
+      </c>
+      <c r="H87">
+        <v>-0.01421069760166555</v>
+      </c>
+      <c r="I87">
+        <v>-0.02042508236224637</v>
+      </c>
+      <c r="J87">
+        <v>0.01415810821095832</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03995671484755556</v>
+        <v>0.02936769222448261</v>
       </c>
       <c r="C88">
-        <v>-0.03291056429644074</v>
+        <v>-0.01676911508307867</v>
       </c>
       <c r="D88">
-        <v>0.009289199952785996</v>
+        <v>0.01836762709991031</v>
       </c>
       <c r="E88">
-        <v>0.01290880846666769</v>
+        <v>-0.01597985443879055</v>
       </c>
       <c r="F88">
-        <v>0.01232753644625948</v>
+        <v>-0.01353975379560175</v>
       </c>
       <c r="G88">
-        <v>-0.01142981746815902</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03605842700796218</v>
+      </c>
+      <c r="H88">
+        <v>-0.03438789837397469</v>
+      </c>
+      <c r="I88">
+        <v>-0.02580620372672676</v>
+      </c>
+      <c r="J88">
+        <v>0.02972375457339572</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.001948483516745399</v>
+        <v>0.06506291825968105</v>
       </c>
       <c r="C89">
-        <v>0.4185061311962821</v>
+        <v>0.3563545724096205</v>
       </c>
       <c r="D89">
-        <v>-0.08215021802014535</v>
+        <v>-0.1710240467030673</v>
       </c>
       <c r="E89">
-        <v>-0.001664098708316555</v>
+        <v>0.04451057791165905</v>
       </c>
       <c r="F89">
-        <v>-0.01278571968739783</v>
+        <v>0.04220146307348109</v>
       </c>
       <c r="G89">
-        <v>-0.03932690379538151</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04095805295511726</v>
+      </c>
+      <c r="H89">
+        <v>-0.05196581209918461</v>
+      </c>
+      <c r="I89">
+        <v>0.2583258245998928</v>
+      </c>
+      <c r="J89">
+        <v>-0.08090085176808486</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.004296251630770746</v>
+        <v>0.04556614700224791</v>
       </c>
       <c r="C90">
-        <v>0.3118618648105304</v>
+        <v>0.3108360767572828</v>
       </c>
       <c r="D90">
-        <v>-0.02930084254540172</v>
+        <v>-0.1306330238367122</v>
       </c>
       <c r="E90">
-        <v>-0.04351251108120022</v>
+        <v>0.03077994148727565</v>
       </c>
       <c r="F90">
-        <v>-0.01573581474806802</v>
+        <v>0.03898646229154795</v>
       </c>
       <c r="G90">
-        <v>-0.04164591571431377</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02100120990785295</v>
+      </c>
+      <c r="H90">
+        <v>-0.01263721010091304</v>
+      </c>
+      <c r="I90">
+        <v>0.2279038981716281</v>
+      </c>
+      <c r="J90">
+        <v>-0.04443109244679073</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.2802704952059989</v>
+        <v>0.2973565521096412</v>
       </c>
       <c r="C91">
-        <v>-0.02148604362754746</v>
+        <v>-0.0377635417487446</v>
       </c>
       <c r="D91">
-        <v>0.06174789590181969</v>
+        <v>-0.007679759533209031</v>
       </c>
       <c r="E91">
-        <v>0.284555399148101</v>
+        <v>-0.08433990851408299</v>
       </c>
       <c r="F91">
-        <v>0.1198830351248689</v>
+        <v>-0.2903439485959327</v>
       </c>
       <c r="G91">
-        <v>0.02470768660651447</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.03207684693000085</v>
+      </c>
+      <c r="H91">
+        <v>-0.0005556111993536422</v>
+      </c>
+      <c r="I91">
+        <v>0.1208825036588844</v>
+      </c>
+      <c r="J91">
+        <v>0.06157431098345518</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.01171621757105012</v>
+        <v>0.1011140540189739</v>
       </c>
       <c r="C92">
-        <v>0.4295004798090642</v>
+        <v>0.4177214359210591</v>
       </c>
       <c r="D92">
-        <v>-0.1807178930317136</v>
+        <v>-0.1505684723093212</v>
       </c>
       <c r="E92">
-        <v>0.1108041890877416</v>
+        <v>0.06232260367365446</v>
       </c>
       <c r="F92">
-        <v>0.06341146283372506</v>
+        <v>-0.1146650079421988</v>
       </c>
       <c r="G92">
-        <v>0.1322271413644293</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.09190384986177708</v>
+      </c>
+      <c r="H92">
+        <v>-0.4216963369533657</v>
+      </c>
+      <c r="I92">
+        <v>-0.6826562971455238</v>
+      </c>
+      <c r="J92">
+        <v>0.3065969955507385</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.01084992137118411</v>
+        <v>0.04954304653547489</v>
       </c>
       <c r="C93">
-        <v>0.3757382265157838</v>
+        <v>0.3728904710086339</v>
       </c>
       <c r="D93">
-        <v>-0.05814631185190966</v>
+        <v>-0.1718532136527936</v>
       </c>
       <c r="E93">
-        <v>0.01939977305518982</v>
+        <v>0.0591409476312665</v>
       </c>
       <c r="F93">
-        <v>0.006693526165752027</v>
+        <v>0.009869678842101911</v>
       </c>
       <c r="G93">
-        <v>0.03091072591268563</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03672943401425123</v>
+      </c>
+      <c r="H93">
+        <v>0.01907557673603672</v>
+      </c>
+      <c r="I93">
+        <v>0.1649052112735249</v>
+      </c>
+      <c r="J93">
+        <v>-0.06724910745151795</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.2763837795714719</v>
+        <v>0.3038494733279281</v>
       </c>
       <c r="C94">
-        <v>0.07338008677516666</v>
+        <v>0.004240657626403874</v>
       </c>
       <c r="D94">
-        <v>0.02511588483180514</v>
+        <v>-0.04803129875662432</v>
       </c>
       <c r="E94">
-        <v>0.3471530659516439</v>
+        <v>-0.1302144011230091</v>
       </c>
       <c r="F94">
-        <v>0.4124134480437522</v>
+        <v>-0.344731462866966</v>
       </c>
       <c r="G94">
-        <v>-0.1405296272256654</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.208965065884955</v>
+      </c>
+      <c r="H94">
+        <v>-0.1298675604608678</v>
+      </c>
+      <c r="I94">
+        <v>0.01531288440309356</v>
+      </c>
+      <c r="J94">
+        <v>-0.175779985198266</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.2019049855871899</v>
+        <v>0.1324608214970096</v>
       </c>
       <c r="C95">
-        <v>0.03100758311060974</v>
+        <v>-0.076763651249142</v>
       </c>
       <c r="D95">
-        <v>0.0003913942422791671</v>
+        <v>-0.07500334042910213</v>
       </c>
       <c r="E95">
-        <v>0.4033205963464492</v>
+        <v>-0.03539071781935819</v>
       </c>
       <c r="F95">
-        <v>-0.8302893871411459</v>
+        <v>-0.0772954738440442</v>
       </c>
       <c r="G95">
-        <v>0.09323164122745095</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8966936706355431</v>
+      </c>
+      <c r="H95">
+        <v>0.1686209245159566</v>
+      </c>
+      <c r="I95">
+        <v>-0.09045541482763493</v>
+      </c>
+      <c r="J95">
+        <v>-0.2537095993874139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2243734163318369</v>
+        <v>0.2112408988258137</v>
       </c>
       <c r="C98">
-        <v>0.1173935101789587</v>
+        <v>0.0359584125338064</v>
       </c>
       <c r="D98">
-        <v>-0.04724134291823864</v>
+        <v>-0.08455250838607489</v>
       </c>
       <c r="E98">
-        <v>-0.09488179898373522</v>
+        <v>0.02457096203688144</v>
       </c>
       <c r="F98">
-        <v>-0.05714452230353689</v>
+        <v>0.1603644052827329</v>
       </c>
       <c r="G98">
-        <v>-0.04063409776221789</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07736604973256812</v>
+      </c>
+      <c r="H98">
+        <v>0.3308960110681093</v>
+      </c>
+      <c r="I98">
+        <v>-0.1491142183475199</v>
+      </c>
+      <c r="J98">
+        <v>-0.02359475751820072</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02140288125711572</v>
+        <v>0.01615949877536392</v>
       </c>
       <c r="C101">
-        <v>-0.01982785867893726</v>
+        <v>-0.02892826801211415</v>
       </c>
       <c r="D101">
-        <v>0.03444384040598304</v>
+        <v>0.0165808754573623</v>
       </c>
       <c r="E101">
-        <v>-0.02567574075057085</v>
+        <v>-0.03250905538685087</v>
       </c>
       <c r="F101">
-        <v>-0.01469828722199913</v>
+        <v>0.06547878208847151</v>
       </c>
       <c r="G101">
-        <v>-0.02418420798467741</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.01748961109844611</v>
+      </c>
+      <c r="H101">
+        <v>-0.107328586542326</v>
+      </c>
+      <c r="I101">
+        <v>-0.05650499381771495</v>
+      </c>
+      <c r="J101">
+        <v>-0.1103789667114008</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1199588532991836</v>
+        <v>0.1202088451342155</v>
       </c>
       <c r="C102">
-        <v>-0.01391082889305482</v>
+        <v>-0.02185367398324498</v>
       </c>
       <c r="D102">
-        <v>0.03796084629072987</v>
+        <v>0.00928150771836995</v>
       </c>
       <c r="E102">
-        <v>0.0891179383631996</v>
+        <v>-0.05183256714877105</v>
       </c>
       <c r="F102">
-        <v>0.008263483515670585</v>
+        <v>-0.09776946565852243</v>
       </c>
       <c r="G102">
-        <v>0.01121749130530906</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.0186469855445577</v>
+      </c>
+      <c r="H102">
+        <v>0.0178712870323227</v>
+      </c>
+      <c r="I102">
+        <v>0.05195909876497826</v>
+      </c>
+      <c r="J102">
+        <v>0.03480285777713161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01926820611030871</v>
+        <v>0.03270925317976082</v>
       </c>
       <c r="C103">
-        <v>-0.001731952025756789</v>
+        <v>-0.004744154641920378</v>
       </c>
       <c r="D103">
-        <v>0.0140805225564237</v>
+        <v>0.0101168107794041</v>
       </c>
       <c r="E103">
-        <v>0.03087585460365867</v>
+        <v>-0.0210829189088487</v>
       </c>
       <c r="F103">
-        <v>0.01615688595801417</v>
+        <v>-0.02927204785069539</v>
       </c>
       <c r="G103">
-        <v>-0.01640395856826284</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0119271627141153</v>
+      </c>
+      <c r="H103">
+        <v>-0.01711398161797491</v>
+      </c>
+      <c r="I103">
+        <v>0.03330061178722763</v>
+      </c>
+      <c r="J103">
+        <v>0.007509975141649563</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
